--- a/tests/models/linear/4_infra_year_timeslices/concept_multi_year.xlsx
+++ b/tests/models/linear/4_infra_year_timeslices/concept_multi_year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baioc\Documents\GitHub\pyesm\tests\fixtures\models\4 - infra_year_timeslices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baioc\Documents\GitHub\pyesm\tests\models\linear\4_infra_year_timeslices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC724BE7-8F72-4AB9-A012-E43FB550A97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082D39F2-B9D1-40B0-B1D8-6E92C3F563B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{73D1BB93-2A40-4C42-A2A1-530AD39D3EEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{73D1BB93-2A40-4C42-A2A1-530AD39D3EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="4. Infra-year timeslices_v0" sheetId="1" r:id="rId1"/>
@@ -867,6 +867,2261 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="OpenSolver1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009D89C8-A7B0-E3E4-12E8-CDDEDC6AB266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="6867525"/>
+          <a:ext cx="1219200" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF00FF">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="OpenSolver2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD14FFA4-0F9F-983B-A0C0-AA455DE9448B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="7486650"/>
+          <a:ext cx="1219200" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF00FF">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="OpenSolver3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB34983D-2DC7-638F-14D4-4A93A2886F3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="6867525"/>
+          <a:ext cx="1285875" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF00FF">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="OpenSolver4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9106B31D-2200-56FC-024A-A5D9BB8CB452}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="7486650"/>
+          <a:ext cx="1285875" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF00FF">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="OpenSolver5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C091DA7B-6346-B90D-33F4-8C3742C36EB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="8439150"/>
+          <a:ext cx="1962150" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF00FF">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="OpenSolver6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CDABA74-26D5-B888-6DB3-F48F0D718913}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="8439150"/>
+          <a:ext cx="1828800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF00FF">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="OpenSolver7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{943088B6-FF07-91D1-3B2A-D0D5594B1A3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8391525" y="3257550"/>
+          <a:ext cx="609600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>212587</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="OpenSolver8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73F3FF32-1A00-6B06-5259-5EA2DF62CF89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="3175000"/>
+          <a:ext cx="222112" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:alpha val="80000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="19050" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>min </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="OpenSolverAM10:AN11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3C0A46-5714-42CA-1DD2-BC065B85A1CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20031075" y="1714500"/>
+          <a:ext cx="1219200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0=</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="OpenSolverAM15:AN17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E05642-B09F-04DE-6788-57AC3ECA3E3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20031075" y="2686050"/>
+          <a:ext cx="1219200" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="008000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0=</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="OpenSolverAP10:AR10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70999AC1-8D56-568D-9A5E-BD22151EC81C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21936075" y="1714500"/>
+          <a:ext cx="2066925" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="9900CC"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="9900CC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0=</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="OpenSolverAT10:AV10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF9A556-2B8A-E1A0-105F-26F97BEE5C56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24098250" y="1714500"/>
+          <a:ext cx="2266950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="800000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0=</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="OpenSolverAP15:AR16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A472EB9B-50DD-7F78-4A63-160F29937F15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21936075" y="2686050"/>
+          <a:ext cx="2066925" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="00CC33"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00CC33"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0=</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="OpenSolverAT15:AV16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB77572-50A7-9090-CD98-E37D5E48C357}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24098250" y="2686050"/>
+          <a:ext cx="2266950" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0=</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="OpenSolverAX10:AY10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB69C897-DC5A-CE80-4DB7-2C59E6F401B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26974800" y="1714500"/>
+          <a:ext cx="1219200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="CC0099"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="CC0099"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0=</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="OpenSolverAX15:AY16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53080484-6688-039C-FCB6-14F567166DEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26974800" y="2686050"/>
+          <a:ext cx="1219200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0=</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="OpenSolver17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D811053-74EF-0691-22F5-43FC3AB8E3AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5613400" y="6880225"/>
+          <a:ext cx="1273175" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="008000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="008000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="OpenSolver18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0578B50F-5EF5-EAA3-6029-F823D764670D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="9963150"/>
+          <a:ext cx="1285875" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="008000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>≤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>39688</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="OpenSolver19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3254898-77AD-C22D-C7FA-8C3CE710490D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="2"/>
+          <a:endCxn id="47" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6243638" y="7439025"/>
+          <a:ext cx="6350" cy="2524125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="008000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>455613</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>134938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>227013</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="OpenSolver20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B393FCD2-C54B-84D6-640D-758E3438FFEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6056313" y="8574088"/>
+          <a:ext cx="381000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="19050" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="OpenSolver21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0654A6E-A22E-5652-119E-A1A9216F3602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5613400" y="7499350"/>
+          <a:ext cx="1273175" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="9900CC"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="9900CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="OpenSolver22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8CEC08-FE47-EAAC-7488-8D9888CA0D7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="10582275"/>
+          <a:ext cx="1285875" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="9900CC"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="9900CC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>≤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>39688</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="OpenSolver23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4467C7B0-80BD-4688-84CE-3FBEE020DB7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="2"/>
+          <a:endCxn id="51" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6243638" y="8058150"/>
+          <a:ext cx="6350" cy="2524125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="9900CC"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>455613</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>182563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>227013</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="OpenSolver24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4962967-D72E-43BC-D7CA-D9A69B104FB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6056313" y="9193213"/>
+          <a:ext cx="381000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="19050" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="OpenSolver25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64258B30-1A4E-4F34-43B6-0E3A1604E0BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6886575" y="8439150"/>
+          <a:ext cx="676275" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="800000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="800000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="OpenSolver26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C08651B-1FFB-5846-7A94-8BB47D90D97C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6886575" y="11153775"/>
+          <a:ext cx="676275" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="800000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>≤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="OpenSolver27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9884426A-F6C3-4FA7-444C-0D8E307544BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="2"/>
+          <a:endCxn id="55" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7224713" y="8820150"/>
+          <a:ext cx="0" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="800000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>528638</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>150813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="OpenSolver28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3D2F7E-E700-FFE9-FC1F-E11DD8466E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7034213" y="9859963"/>
+          <a:ext cx="381000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="19050" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1190,7 +3445,7 @@
   <dimension ref="A1:AZ93"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="O45" sqref="O45"/>
@@ -2677,7 +4932,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T42" sqref="T42"/>
+      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4068,5 +6323,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>